--- a/5 改版后自动化网页提交/5.11/刘晨-主题提交-3月11日.xlsx
+++ b/5 改版后自动化网页提交/5.11/刘晨-主题提交-3月11日.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="提交版" sheetId="1" r:id="rId1"/>
+    <sheet name="新版提交" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -226,12 +227,32 @@
     <t>MLX91804在胎压监测系统中的应用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.melexis.com/zh/insights/knowhow/ongoing-progression-of-tpms-technology</t>
+  </si>
+  <si>
+    <t>https://www.melexis.com/zh/insights/knowhow/hev-deployment</t>
+  </si>
+  <si>
+    <t>Melexis：满足HEV市场对逆变器设计小型化的需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改写，主要介绍Melexis如何满足HEV市场对逆变器设计小型化的需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.melexis.com/en/product/MLX91208/250kHz-Programmable-IMC-Hall-Current-Sensor</t>
+  </si>
+  <si>
+    <t>https://www.melexis.com/zh/insights/knowhow/mems-mid-range-pressure-measurement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +287,13 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -343,6 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -625,21 +654,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -691,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -743,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -769,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -795,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -821,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -847,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -873,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -899,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -922,6 +951,335 @@
         <v>2016.1</v>
       </c>
       <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>2017.08</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>2017.08</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>2017.08</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>2016.1</v>
+      </c>
+      <c r="H14" t="s">
         <v>7</v>
       </c>
     </row>
